--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/WEST_VIRGINIA_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/WEST_VIRGINIA_2018.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D169"/>
+  <dimension ref="A1:D163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -394,7 +394,7 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>0.009433962264150943</v>
+        <v>0.009433962264150945</v>
       </c>
     </row>
     <row r="3">
@@ -407,7 +407,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>0.009433962264150943</v>
+        <v>0.009433962264150945</v>
       </c>
     </row>
     <row r="4">
@@ -488,7 +488,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C9">
@@ -514,7 +514,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C11">
@@ -584,7 +584,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C16">
@@ -604,7 +604,7 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>0.009433962264150943</v>
+        <v>0.009433962264150945</v>
       </c>
     </row>
     <row r="18">
@@ -641,7 +641,7 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C20">
@@ -667,7 +667,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -705,7 +705,7 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <v>0.009433962264150943</v>
+        <v>0.009433962264150945</v>
       </c>
     </row>
     <row r="25">
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="D30">
-        <v>0.009433962264150943</v>
+        <v>0.009433962264150945</v>
       </c>
     </row>
     <row r="31">
@@ -801,13 +801,13 @@
         <v>2</v>
       </c>
       <c r="D31">
-        <v>0.009433962264150943</v>
+        <v>0.009433962264150945</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -832,7 +832,7 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <v>0.009433962264150943</v>
+        <v>0.009433962264150945</v>
       </c>
     </row>
     <row r="34">
@@ -858,7 +858,7 @@
         <v>2</v>
       </c>
       <c r="D35">
-        <v>0.009433962264150943</v>
+        <v>0.009433962264150945</v>
       </c>
     </row>
     <row r="36">
@@ -934,7 +934,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C41">
@@ -1038,7 +1038,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C49">
@@ -1051,7 +1051,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C50">
@@ -1082,14 +1082,14 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C52">
         <v>2</v>
       </c>
       <c r="D52">
-        <v>0.009433962264150943</v>
+        <v>0.009433962264150945</v>
       </c>
     </row>
     <row r="53">
@@ -1108,7 +1108,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C54">
@@ -1121,7 +1121,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C55">
@@ -1134,7 +1134,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C56">
@@ -1147,7 +1147,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C57">
@@ -1173,14 +1173,14 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C59">
         <v>2</v>
       </c>
       <c r="D59">
-        <v>0.009433962264150943</v>
+        <v>0.009433962264150945</v>
       </c>
     </row>
     <row r="60">
@@ -1238,7 +1238,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C64">
@@ -1271,7 +1271,7 @@
         <v>21</v>
       </c>
       <c r="D66">
-        <v>0.09905660377358491</v>
+        <v>0.09905660377358493</v>
       </c>
     </row>
     <row r="67">
@@ -1295,7 +1295,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C68">
@@ -1315,20 +1315,20 @@
         <v>2</v>
       </c>
       <c r="D69">
-        <v>0.009433962264150943</v>
+        <v>0.009433962264150945</v>
       </c>
     </row>
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C70">
         <v>2</v>
       </c>
       <c r="D70">
-        <v>0.009433962264150943</v>
+        <v>0.009433962264150945</v>
       </c>
     </row>
     <row r="71">
@@ -1347,7 +1347,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C72">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C74">
@@ -1437,7 +1437,7 @@
         <v>2</v>
       </c>
       <c r="D78">
-        <v>0.009433962264150943</v>
+        <v>0.009433962264150945</v>
       </c>
     </row>
     <row r="79">
@@ -1520,7 +1520,7 @@
         <v>2</v>
       </c>
       <c r="D84">
-        <v>0.009433962264150943</v>
+        <v>0.009433962264150945</v>
       </c>
     </row>
     <row r="85">
@@ -1617,7 +1617,7 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C92">
@@ -1650,7 +1650,7 @@
         <v>2</v>
       </c>
       <c r="D94">
-        <v>0.009433962264150943</v>
+        <v>0.009433962264150945</v>
       </c>
     </row>
     <row r="95">
@@ -1663,7 +1663,7 @@
         <v>2</v>
       </c>
       <c r="D95">
-        <v>0.009433962264150943</v>
+        <v>0.009433962264150945</v>
       </c>
     </row>
     <row r="96">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C100">
@@ -1751,7 +1751,7 @@
         <v>2</v>
       </c>
       <c r="D101">
-        <v>0.009433962264150943</v>
+        <v>0.009433962264150945</v>
       </c>
     </row>
     <row r="102">
@@ -1782,7 +1782,7 @@
         <v>2</v>
       </c>
       <c r="D103">
-        <v>0.009433962264150943</v>
+        <v>0.009433962264150945</v>
       </c>
     </row>
     <row r="104">
@@ -1801,7 +1801,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C105">
@@ -1814,7 +1814,7 @@
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C106">
@@ -1840,7 +1840,7 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C108">
@@ -1879,7 +1879,7 @@
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C111">
@@ -1925,7 +1925,7 @@
         <v>2</v>
       </c>
       <c r="D114">
-        <v>0.009433962264150943</v>
+        <v>0.009433962264150945</v>
       </c>
     </row>
     <row r="115">
@@ -1970,7 +1970,7 @@
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C118">
@@ -1983,7 +1983,7 @@
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C119">
@@ -1996,14 +1996,14 @@
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C120">
         <v>2</v>
       </c>
       <c r="D120">
-        <v>0.009433962264150943</v>
+        <v>0.009433962264150945</v>
       </c>
     </row>
     <row r="121">
@@ -2034,7 +2034,7 @@
         <v>2</v>
       </c>
       <c r="D122">
-        <v>0.009433962264150943</v>
+        <v>0.009433962264150945</v>
       </c>
     </row>
     <row r="123">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C129">
@@ -2136,7 +2136,7 @@
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C130">
@@ -2156,7 +2156,7 @@
         <v>2</v>
       </c>
       <c r="D131">
-        <v>0.009433962264150943</v>
+        <v>0.009433962264150945</v>
       </c>
     </row>
     <row r="132">
@@ -2175,14 +2175,14 @@
     <row r="133">
       <c r="B133" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C133">
         <v>2</v>
       </c>
       <c r="D133">
-        <v>0.009433962264150943</v>
+        <v>0.009433962264150945</v>
       </c>
     </row>
     <row r="134">
@@ -2219,7 +2219,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C136">
@@ -2353,7 +2353,7 @@
         <v>2</v>
       </c>
       <c r="D145">
-        <v>0.009433962264150943</v>
+        <v>0.009433962264150945</v>
       </c>
     </row>
     <row r="146">
@@ -2423,7 +2423,7 @@
         <v>2</v>
       </c>
       <c r="D150">
-        <v>0.009433962264150943</v>
+        <v>0.009433962264150945</v>
       </c>
     </row>
     <row r="151">
@@ -2501,13 +2501,13 @@
         <v>2</v>
       </c>
       <c r="D156">
-        <v>0.009433962264150943</v>
+        <v>0.009433962264150945</v>
       </c>
     </row>
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C157">
@@ -2598,41 +2598,6 @@
       </c>
       <c r="D163">
         <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 794,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>Diciembre de 2019</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/WEST_VIRGINIA_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/WEST_VIRGINIA_2018.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -460,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Chenalhó</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Mazapa De Madero</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Pijijiapan</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>San Cristóbal De Las Casas</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -538,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Tuxtla Gutiérrez</t>
@@ -551,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Total</t>
@@ -582,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>San Francisco Del Oro</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Total</t>
@@ -626,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Saltillo</t>
@@ -639,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>San Juan De Sabinas</t>
@@ -652,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Total</t>
@@ -683,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -696,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -709,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -722,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -735,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -748,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Xochimilco</t>
@@ -761,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Total</t>
@@ -792,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Total</t>
@@ -823,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -836,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Sultepec</t>
@@ -849,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -862,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Tenancingo</t>
@@ -875,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Tlatlaya</t>
@@ -888,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Zacualpan</t>
@@ -901,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Total</t>
@@ -932,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
@@ -945,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Guanajuato</t>
@@ -958,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Jerécuaro</t>
@@ -971,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>León</t>
@@ -984,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Manuel Doblado</t>
@@ -997,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -1010,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Salvatierra</t>
@@ -1023,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>San José Iturbide</t>
@@ -1036,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Silao De La Victoria</t>
@@ -1049,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Valle De Santiago</t>
@@ -1062,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1093,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Arcelia</t>
@@ -1106,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Atoyac De Álvarez</t>
@@ -1119,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -1132,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Chilapa De Álvarez</t>
@@ -1145,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Coyuca De Catalán</t>
@@ -1158,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Cuajinicuilapa</t>
@@ -1171,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Cutzamala De Pinzón</t>
@@ -1184,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Florencio Villarreal</t>
@@ -1197,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Malinaltepec</t>
@@ -1210,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Petatlán</t>
@@ -1223,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>San Luis Acatlán</t>
@@ -1236,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -1249,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Tetipac</t>
@@ -1262,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1293,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Huasca De Ocampo</t>
@@ -1306,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Pisaflores</t>
@@ -1319,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Santiago De Anaya</t>
@@ -1332,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Tecozautla</t>
@@ -1345,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Tula De Allende</t>
@@ -1358,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1389,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Ayotlán</t>
@@ -1402,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Degollado</t>
@@ -1415,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1428,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -1441,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Juanacatlán</t>
@@ -1454,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Tala</t>
@@ -1467,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Villa Hidalgo</t>
@@ -1480,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Zapotlanejo</t>
@@ -1493,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1524,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>La Huacana</t>
@@ -1537,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -1550,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Morelos</t>
@@ -1563,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Paracho</t>
@@ -1576,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Parácuaro</t>
@@ -1589,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>San Lucas</t>
@@ -1602,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Santa Ana Maya</t>
@@ -1615,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Tiquicheo De Nicolás Romero</t>
@@ -1628,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Tzitzio</t>
@@ -1641,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -1654,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -1667,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Zitácuaro</t>
@@ -1680,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1711,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1742,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Monterrey</t>
@@ -1755,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1786,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Cosolapa</t>
@@ -1799,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Ejutla De Crespo</t>
@@ -1812,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Ixtlán De Juárez</t>
@@ -1825,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Matías Romero Avendaño</t>
@@ -1838,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Miahuatlán De Porfirio Díaz</t>
@@ -1851,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Monjas</t>
@@ -1864,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>San Agustín Loxicha</t>
@@ -1877,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>San Antonino El Alto</t>
@@ -1890,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Santa María Yosoyúa</t>
@@ -1903,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Santa María Zacatepec</t>
@@ -1916,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Santo Tomás Ocotepec</t>
@@ -1929,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Santos Reyes Nopala</t>
@@ -1942,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Santos Reyes Tepejillo</t>
@@ -1955,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Silacayoápam</t>
@@ -1968,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
@@ -1981,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Tlacolula De Matamoros</t>
@@ -1994,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Villa De Chilapa De Díaz</t>
@@ -2007,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2038,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Atzitzihuacán</t>
@@ -2051,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Honey</t>
@@ -2064,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Pahuatlán</t>
@@ -2077,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -2090,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -2103,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2134,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Pinal De Amoles</t>
@@ -2147,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -2160,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>San Joaquín</t>
@@ -2173,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>San Juan Del Río</t>
@@ -2186,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2217,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Axtla De Terrazas</t>
@@ -2230,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Rioverde</t>
@@ -2243,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Tamuín</t>
@@ -2256,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2287,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Culiacán</t>
@@ -2300,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Guasave</t>
@@ -2313,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2344,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -2357,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2388,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Atoyac</t>
@@ -2401,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Calcahualco</t>
@@ -2414,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Catemaco</t>
@@ -2427,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Comapa</t>
@@ -2440,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -2453,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Cuitláhuac</t>
@@ -2466,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Huayacocotla</t>
@@ -2479,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Jesús Carranza</t>
@@ -2492,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -2505,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Poza Rica De Hidalgo</t>
@@ -2518,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>San Andrés Tuxtla</t>
@@ -2531,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Tlaquilpa</t>
@@ -2544,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2575,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Total</t>
